--- a/MainProject/CommonFiles/AddCourseData.xlsx
+++ b/MainProject/CommonFiles/AddCourseData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftwareTestingICTAK\Selenium\githubClone\ictk\MainProject\CommonFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5ED294D-E437-4C3C-AAEB-309D3A626A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C67DE4D-C12F-49A2-BD9A-5E710FD4AF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{47E5AB5D-284C-4BC9-AF1E-F528231E272F}"/>
   </bookViews>
@@ -161,8 +161,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,7 +481,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -581,8 +582,8 @@
       <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="G2">
-        <v>2032021</v>
+      <c r="G2" s="1">
+        <v>44265</v>
       </c>
       <c r="H2" t="s">
         <v>27</v>

--- a/MainProject/CommonFiles/AddCourseData.xlsx
+++ b/MainProject/CommonFiles/AddCourseData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftwareTestingICTAK\Selenium\githubClone\ictk\MainProject\CommonFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C67DE4D-C12F-49A2-BD9A-5E710FD4AF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689CC95A-FBC1-4BD5-B60B-E8F8710CD019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{47E5AB5D-284C-4BC9-AF1E-F528231E272F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>CourseTitle</t>
   </si>
@@ -126,6 +126,18 @@
   </si>
   <si>
     <t>LasDateReg</t>
+  </si>
+  <si>
+    <t>04-03-2021</t>
+  </si>
+  <si>
+    <t>30-03-2021</t>
+  </si>
+  <si>
+    <t>05-03-2021</t>
+  </si>
+  <si>
+    <t>20-03-2021</t>
   </si>
 </sst>
 </file>
@@ -161,9 +173,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9C554F-C741-4D32-9F88-52BBD5AAD7D2}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -582,20 +597,20 @@
       <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1">
-        <v>44265</v>
+      <c r="G2" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="H2" t="s">
         <v>27</v>
       </c>
-      <c r="I2">
-        <v>3032021</v>
-      </c>
-      <c r="J2">
-        <v>4032021</v>
-      </c>
-      <c r="K2">
-        <v>5032021</v>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="L2">
         <v>5001</v>
@@ -621,5 +636,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>